--- a/output/ursus/2018/sheets/year_2018.xlsx
+++ b/output/ursus/2018/sheets/year_2018.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>52.17741935483871</v>
+        <v>57.09039894225722</v>
       </c>
       <c r="C2" t="n">
-        <v>41.1</v>
+        <v>50.11240202222666</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>57.94285714285714</v>
+        <v>57.97087029449805</v>
       </c>
       <c r="C3" t="n">
-        <v>50.97142857142857</v>
+        <v>51.15814010846351</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>58.15483870967743</v>
+        <v>58.2236305403286</v>
       </c>
       <c r="C4" t="n">
-        <v>49.10322580645162</v>
+        <v>50.97816886937476</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>49.68333333333332</v>
+        <v>56.15665546874023</v>
       </c>
       <c r="C5" t="n">
-        <v>44.75666666666665</v>
+        <v>50.09960568780076</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>58.86129032258064</v>
+        <v>58.87498713538012</v>
       </c>
       <c r="C6" t="n">
-        <v>52.3774193548387</v>
+        <v>52.54872417001287</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>59.16333333333333</v>
+        <v>59.19496247555762</v>
       </c>
       <c r="C7" t="n">
-        <v>52.19</v>
+        <v>52.47291620808302</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>59.03870967741936</v>
+        <v>59.05671543526779</v>
       </c>
       <c r="C8" t="n">
-        <v>52.30322580645161</v>
+        <v>52.43117741957059</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>59.09032258064516</v>
+        <v>59.10647671701686</v>
       </c>
       <c r="C9" t="n">
-        <v>52.35161290322581</v>
+        <v>52.53322817201662</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>59.43999999999999</v>
+        <v>59.45761121581515</v>
       </c>
       <c r="C10" t="n">
-        <v>52.29</v>
+        <v>52.46359543229734</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>59.35483870967743</v>
+        <v>59.37377663552007</v>
       </c>
       <c r="C11" t="n">
-        <v>52.0741935483871</v>
+        <v>52.2102618898521</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>56.58333333333333</v>
+        <v>58.93843658412819</v>
       </c>
       <c r="C12" t="n">
-        <v>47.98666666666666</v>
+        <v>51.63269736575433</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>58.20000000000001</v>
+        <v>58.3289864061892</v>
       </c>
       <c r="C13" t="n">
-        <v>51.13225806451613</v>
+        <v>51.71742336781178</v>
       </c>
     </row>
   </sheetData>
